--- a/Test-cases on Calendar.xlsx
+++ b/Test-cases on Calendar.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olga\Desktop\Ольга\Тестовые задания\Открытый код\TestisgBugs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6060"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -67,15 +75,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Программа выводит дату из указанного диапазона в формате d.m.y (01.01.2010) </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>и время в формате (HH.MM.SS)</t>
     </r>
@@ -178,21 +188,6 @@
     <t>Т-8</t>
   </si>
   <si>
-    <t>Проверка ввода данных с кнопок управления курсором на клавиатуре (стрелки )</t>
-  </si>
-  <si>
-    <t>Предусловия:
-1. ПО запущено
-Шаги:
-1. Нажать на клавиш управления курсором (стрелки)</t>
-  </si>
-  <si>
-    <t>Ничего не происходит</t>
-  </si>
-  <si>
-    <t>Заведен баг bg-04</t>
-  </si>
-  <si>
     <t>Т-9</t>
   </si>
   <si>
@@ -208,43 +203,42 @@
     <t>Окно ПО можно сжимать и разжимать</t>
   </si>
   <si>
-    <t>Т-10</t>
-  </si>
-  <si>
     <t>Проверка работы скролла</t>
+  </si>
+  <si>
+    <t>Вертикальный скролл работает</t>
   </si>
   <si>
     <t>Предусловия:
 1. ПО запущено
 Шаги:
-1. Мошкой попробовать проскроллить вверх-вниз</t>
-  </si>
-  <si>
-    <t>Вертикальный скролл работает</t>
+1. Мышкой попробовать проскроллить вверх-вниз</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -254,7 +248,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -288,31 +282,12 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -321,105 +296,120 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -609,290 +599,282 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.13"/>
-    <col customWidth="1" min="2" max="2" width="23.13"/>
-    <col customWidth="1" min="3" max="3" width="27.13"/>
-    <col customWidth="1" min="4" max="4" width="26.13"/>
-    <col customWidth="1" min="5" max="6" width="22.5"/>
+    <col min="1" max="1" width="5.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="69.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="9" customWidth="1"/>
+    <col min="5" max="6" width="22.42578125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="12.5703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="15"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AA1">
@@ -900,6 +882,6 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>